--- a/jmp_doe.xlsx
+++ b/jmp_doe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzen/Documents/MATLAB/Duke/PhD Projects/Probability of Infection/POIBinary_GH/CellMigration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308580E9-D191-9842-8EF5-9C6991031D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19901443-0DD1-6844-9052-B489B88086E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>beta</t>
   </si>
@@ -59,13 +59,31 @@
     <t>h_E</t>
   </si>
   <si>
-    <t>C_G0</t>
-  </si>
-  <si>
     <t>T_VD</t>
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Vg</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>drugType</t>
   </si>
 </sst>
 </file>
@@ -135,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +193,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,396 +449,807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>800</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>40</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H13" si="0">0.00001</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <f>5000</f>
         <v>5000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
+        <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N7" si="1">10000000</f>
         <v>10000000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="O2">
+        <f>-4*24</f>
+        <v>-96</v>
+      </c>
+      <c r="P2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
       <c r="T2" s="2"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="3"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>10000</v>
       </c>
-      <c r="B3" s="2">
-        <v>3.5000000000000003E-2</v>
+      <c r="B3">
+        <v>100</v>
       </c>
       <c r="C3" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
         <v>800</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>40</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <f>5000</f>
         <v>5000</v>
       </c>
-      <c r="I3" s="2">
-        <v>300</v>
-      </c>
       <c r="J3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <f>-4*24</f>
+        <v>-96</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>10000</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.02</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>800</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>40</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f>5000</f>
         <v>5000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
+        <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="K4" s="2">
-        <v>-7200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>-4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10000</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.02</v>
+      <c r="B5">
+        <v>100</v>
       </c>
       <c r="C5" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5" s="2">
         <v>800</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f>5000</f>
         <v>5000</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1000</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="K5" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>-4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.01</v>
+      <c r="B6">
+        <v>100</v>
       </c>
       <c r="C6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="2">
         <v>800</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>40</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <f>5000</f>
         <v>5000</v>
       </c>
-      <c r="I6" s="2">
-        <v>1500</v>
-      </c>
       <c r="J6" s="2">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>10000</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.01</v>
+      <c r="B7">
+        <v>100</v>
       </c>
       <c r="C7" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7" s="2">
         <v>800</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>40</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f>5000</f>
         <v>5000</v>
       </c>
-      <c r="I7" s="2">
-        <v>1500</v>
-      </c>
       <c r="J7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="2">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I8" s="3">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="J8" s="2">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:N13" si="2">30000000</f>
+        <v>30000000</v>
+      </c>
+      <c r="O8">
+        <f>-4*24</f>
+        <v>-96</v>
+      </c>
+      <c r="P8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I9" s="3">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>30000000</v>
+      </c>
+      <c r="O9">
+        <f>-4*24</f>
+        <v>-96</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="2">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="J10" s="2">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <f>30000000</f>
+        <v>30000000</v>
+      </c>
+      <c r="O10">
+        <v>-4</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>800</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <f>30000000</f>
+        <v>30000000</v>
+      </c>
+      <c r="O11">
+        <v>-4</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="2">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="J12" s="2">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>30000000</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>800</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I13" s="3">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>30000000</v>
+      </c>
+      <c r="O13" s="2">
+        <v>4</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -828,8 +1257,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -837,8 +1267,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -846,8 +1277,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -855,8 +1287,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -864,8 +1297,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -873,8 +1307,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -882,8 +1317,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -891,8 +1327,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -900,8 +1337,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -909,8 +1347,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -918,8 +1357,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -927,8 +1367,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -936,8 +1377,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -945,8 +1387,9 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -954,8 +1397,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -963,8 +1407,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -972,8 +1417,9 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -981,8 +1427,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -990,8 +1437,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -999,8 +1447,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1008,8 +1457,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1017,8 +1467,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1026,8 +1477,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1035,8 +1487,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1044,8 +1497,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1053,6 +1507,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
